--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-秋-软件工程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AlbumSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA97F3-B8F9-4822-96E0-1DEBA056BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6092A493-499B-439F-BA06-2783C18DE2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{B02C1409-FB03-449B-9B5D-29C9C585FD75}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="108">
   <si>
     <t>表字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,14 @@
   </si>
   <si>
     <t>0：未处理 1：标记删除（因为举报）2：标记保留（举报失败，评论合法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD73156-8E7B-4B55-9DA9-BD5F4E6B2DFD}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -893,10 +901,10 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -990,10 +998,10 @@
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1070,10 +1078,10 @@
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1094,12 +1102,12 @@
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1117,10 +1125,10 @@
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1138,10 +1146,10 @@
       <c r="F17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -1162,10 +1170,10 @@
       <c r="F18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1180,10 +1188,10 @@
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -1201,10 +1209,10 @@
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1219,10 +1227,10 @@
       <c r="F21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1237,19 +1245,19 @@
       <c r="F22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1385,10 +1393,10 @@
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -1409,12 +1417,12 @@
       <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1432,10 +1440,10 @@
       <c r="F34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1453,10 +1461,10 @@
       <c r="F35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1471,10 +1479,10 @@
       <c r="F36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -1492,10 +1500,10 @@
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -1510,19 +1518,19 @@
       <c r="F38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -1641,10 +1649,10 @@
       <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
@@ -1752,10 +1760,10 @@
       <c r="A54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
@@ -1863,10 +1871,10 @@
       <c r="A61" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -1923,23 +1931,23 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="4"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
@@ -1996,23 +2004,23 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -2069,23 +2077,23 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="4"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
@@ -2142,23 +2150,23 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
@@ -2215,23 +2223,23 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -2306,32 +2314,34 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1">
+        <v>128</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G33:J38"/>
-    <mergeCell ref="G15:J22"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B47:C47"/>
@@ -2341,6 +2351,18 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="G33:J38"/>
+    <mergeCell ref="G15:J22"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A70:F70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
